--- a/Claims-statistical-report-calendar-year-2024-06.xlsx
+++ b/Claims-statistical-report-calendar-year-2024-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Studio\FDS\FDS_A3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\WorkSafe\PCU\RegularReports\Website data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804B8A0-E190-45EE-9372-F1F53304F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85DBD9-BE8C-4283-9D98-F9260D4C6E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -2849,18 +2849,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2905,6 +2893,18 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4684,17 +4684,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
     <col min="3" max="3" width="145" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.35" customHeight="1">
+    <row r="1" spans="1:3" ht="22.4" customHeight="1">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.95" customHeight="1">
+    <row r="9" spans="1:3" ht="16" customHeight="1">
       <c r="B9" s="33" t="s">
         <v>1</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.95" customHeight="1">
+    <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="B10" s="33" t="s">
         <v>3</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.95" customHeight="1">
+    <row r="11" spans="1:3" ht="16" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>5</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.95" customHeight="1">
+    <row r="12" spans="1:3" ht="16" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.95" customHeight="1">
+    <row r="13" spans="1:3" ht="16" customHeight="1">
       <c r="B13" s="33" t="s">
         <v>9</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.95" customHeight="1">
+    <row r="14" spans="1:3" ht="16" customHeight="1">
       <c r="B14" s="33" t="s">
         <v>11</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.95" customHeight="1">
+    <row r="15" spans="1:3" ht="16" customHeight="1">
       <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.95" customHeight="1">
+    <row r="16" spans="1:3" ht="16" customHeight="1">
       <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
@@ -4769,79 +4769,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.95" customHeight="1">
+    <row r="17" spans="2:3" ht="16" customHeight="1">
       <c r="B17" s="38"/>
       <c r="C17" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.95" customHeight="1">
+    <row r="18" spans="2:3" ht="16" customHeight="1">
       <c r="B18" s="38"/>
       <c r="C18" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.95" customHeight="1">
+    <row r="19" spans="2:3" ht="16" customHeight="1">
       <c r="B19" s="38"/>
       <c r="C19" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.95" customHeight="1">
+    <row r="20" spans="2:3" ht="16" customHeight="1">
       <c r="B20" s="39"/>
       <c r="C20" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.95" customHeight="1">
+    <row r="21" spans="2:3" ht="16" customHeight="1">
       <c r="B21" s="39"/>
       <c r="C21" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.95" customHeight="1">
+    <row r="22" spans="2:3" ht="16" customHeight="1">
       <c r="B22" s="39"/>
       <c r="C22" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.95" customHeight="1">
+    <row r="23" spans="2:3" ht="16" customHeight="1">
       <c r="B23" s="39"/>
       <c r="C23" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.95" customHeight="1">
+    <row r="24" spans="2:3" ht="16" customHeight="1">
       <c r="B24" s="39"/>
       <c r="C24" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.95" customHeight="1">
+    <row r="25" spans="2:3" ht="16" customHeight="1">
       <c r="B25" s="39"/>
       <c r="C25" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15.95" customHeight="1">
+    <row r="26" spans="2:3" ht="16" customHeight="1">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.95" customHeight="1">
+    <row r="27" spans="2:3" ht="16" customHeight="1">
       <c r="B27" s="39"/>
       <c r="C27" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15.95" customHeight="1">
+    <row r="28" spans="2:3" ht="16" customHeight="1">
       <c r="B28" s="41"/>
       <c r="C28" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15.95" customHeight="1">
+    <row r="29" spans="2:3" ht="16" customHeight="1">
       <c r="B29" s="42" t="s">
         <v>29</v>
       </c>
@@ -4849,35 +4849,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15.95" customHeight="1">
+    <row r="30" spans="2:3" ht="16" customHeight="1">
       <c r="B30" s="39"/>
       <c r="C30" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15.95" customHeight="1">
+    <row r="31" spans="2:3" ht="16" customHeight="1">
       <c r="B31" s="39"/>
       <c r="C31" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15.95" customHeight="1">
+    <row r="32" spans="2:3" ht="16" customHeight="1">
       <c r="B32" s="39"/>
       <c r="C32" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.95" customHeight="1">
+    <row r="33" spans="2:3" ht="16" customHeight="1">
       <c r="B33" s="39"/>
       <c r="C33" s="44"/>
     </row>
-    <row r="34" spans="2:3" ht="15.95" customHeight="1">
+    <row r="34" spans="2:3" ht="16" customHeight="1">
       <c r="B34" s="39"/>
       <c r="C34" s="45" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.95" customHeight="1">
+    <row r="35" spans="2:3" ht="16" customHeight="1">
       <c r="B35" s="41"/>
       <c r="C35" s="46" t="s">
         <v>34</v>
@@ -4997,26 +4997,24 @@
   </sheetPr>
   <dimension ref="B7:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="80" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -5024,28 +5022,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="52"/>
       <c r="C11" s="22">
         <v>2011</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>561</v>
       </c>
@@ -5130,7 +5128,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>562</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>563</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>4885</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>564</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>565</v>
       </c>
@@ -5306,7 +5304,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>566</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>567</v>
       </c>
@@ -5394,7 +5392,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>568</v>
       </c>
@@ -5438,7 +5436,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>569</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>570</v>
       </c>
@@ -5526,7 +5524,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>571</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>572</v>
       </c>
@@ -5614,7 +5612,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>573</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23" t="s">
         <v>574</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>575</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>576</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>577</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>5894</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>578</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>579</v>
       </c>
@@ -5922,7 +5920,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>85</v>
       </c>
@@ -5990,8 +5988,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="172.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="172.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:3" ht="15" customHeight="1">
@@ -6005,7 +6003,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="5" customFormat="1" ht="29.1" customHeight="1">
+    <row r="9" spans="2:3" s="5" customFormat="1" ht="29.15" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -6013,7 +6011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="5" customFormat="1" ht="29.1" customHeight="1">
+    <row r="10" spans="2:3" s="5" customFormat="1" ht="29.15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6065,7 +6063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="5" customFormat="1" ht="29.1" customHeight="1">
+    <row r="17" spans="2:3" s="5" customFormat="1" ht="29.15" customHeight="1">
       <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
@@ -6087,7 +6085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="5" customFormat="1" ht="47.1" customHeight="1">
+    <row r="20" spans="2:3" s="5" customFormat="1" ht="47.15" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>55</v>
       </c>
@@ -6112,26 +6110,26 @@
       </c>
     </row>
     <row r="23" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="62" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="24" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="63" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="25" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1"/>
     <row r="26" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1"/>
     <row r="27" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1"/>
-    <row r="28" spans="2:3" s="5" customFormat="1" ht="29.1" customHeight="1"/>
+    <row r="28" spans="2:3" s="5" customFormat="1" ht="29.15" customHeight="1"/>
     <row r="29" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1"/>
-    <row r="30" spans="2:3" s="5" customFormat="1" ht="21.6" customHeight="1"/>
-    <row r="31" spans="2:3" s="5" customFormat="1" ht="23.1" customHeight="1"/>
+    <row r="30" spans="2:3" s="5" customFormat="1" ht="21.65" customHeight="1"/>
+    <row r="31" spans="2:3" s="5" customFormat="1" ht="23.15" customHeight="1"/>
     <row r="32" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1"/>
     <row r="33" s="5" customFormat="1" ht="15" customHeight="1"/>
     <row r="34" s="5" customFormat="1" ht="15" customHeight="1"/>
@@ -6183,22 +6181,22 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
@@ -6206,28 +6204,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="48"/>
       <c r="C11" s="20">
         <v>2011</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23">
         <v>1985</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23">
         <v>1986</v>
       </c>
@@ -6356,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23">
         <v>1987</v>
       </c>
@@ -6400,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23">
         <v>1988</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23">
         <v>1989</v>
       </c>
@@ -6488,7 +6486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23">
         <v>1990</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23">
         <v>1991</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23">
         <v>1992</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23">
         <v>1993</v>
       </c>
@@ -6664,7 +6662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23">
         <v>1994</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23">
         <v>1995</v>
       </c>
@@ -6752,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23">
         <v>1996</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23">
         <v>1997</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23">
         <v>1998</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23">
         <v>1999</v>
       </c>
@@ -6928,7 +6926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B27" s="23">
         <v>2000</v>
       </c>
@@ -6972,7 +6970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="23">
         <v>2001</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="23">
         <v>2002</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B30" s="23">
         <v>2003</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B31" s="23">
         <v>2004</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B32" s="23">
         <v>2005</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B33" s="23">
         <v>2006</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B34" s="23">
         <v>2007</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B35" s="23">
         <v>2008</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B36" s="23">
         <v>2009</v>
       </c>
@@ -7368,7 +7366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B37" s="23">
         <v>2010</v>
       </c>
@@ -7412,7 +7410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B38" s="23">
         <v>2011</v>
       </c>
@@ -7456,7 +7454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B39" s="23">
         <v>2012</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B40" s="23">
         <v>2013</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B41" s="23">
         <v>2014</v>
       </c>
@@ -7588,7 +7586,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B42" s="23">
         <v>2015</v>
       </c>
@@ -7632,7 +7630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B43" s="23">
         <v>2016</v>
       </c>
@@ -7676,7 +7674,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B44" s="23">
         <v>2017</v>
       </c>
@@ -7720,7 +7718,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B45" s="23">
         <v>2018</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B46" s="23">
         <v>2019</v>
       </c>
@@ -7808,7 +7806,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B47" s="23">
         <v>2020</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B48" s="23">
         <v>2021</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B49" s="23">
         <v>2022</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B50" s="23">
         <v>2023</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>27692</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>65</v>
       </c>
@@ -8048,25 +8046,25 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="40" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:15" ht="15" customHeight="1">
       <c r="K5" s="25"/>
     </row>
-    <row r="7" spans="2:15" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="19" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="19" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
@@ -8079,28 +8077,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B12" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" ht="40" customHeight="1">
+      <c r="B12" s="48"/>
       <c r="C12" s="20">
         <v>2011</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>69</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>70</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>71</v>
       </c>
@@ -8273,7 +8271,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>72</v>
       </c>
@@ -8317,7 +8315,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>73</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>74</v>
       </c>
@@ -8405,7 +8403,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>75</v>
       </c>
@@ -8449,7 +8447,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>76</v>
       </c>
@@ -8493,7 +8491,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>77</v>
       </c>
@@ -8537,7 +8535,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>78</v>
       </c>
@@ -8581,7 +8579,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -8625,7 +8623,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>80</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23" t="s">
         <v>81</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8773,7 +8771,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="19" t="s">
         <v>61</v>
       </c>
@@ -8791,7 +8789,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="19" t="s">
         <v>62</v>
       </c>
@@ -8843,28 +8841,28 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B32" s="55" t="s">
+    <row r="32" spans="2:15" ht="40" customHeight="1">
+      <c r="B32" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-    </row>
-    <row r="33" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B33" s="55"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="2:15" ht="40" customHeight="1">
+      <c r="B33" s="51"/>
       <c r="C33" s="26">
         <v>2011</v>
       </c>
@@ -8905,7 +8903,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B34" s="23" t="s">
         <v>69</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B35" s="23" t="s">
         <v>70</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B36" s="23" t="s">
         <v>71</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B37" s="23" t="s">
         <v>72</v>
       </c>
@@ -9081,7 +9079,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B38" s="23" t="s">
         <v>73</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B39" s="23" t="s">
         <v>74</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B40" s="23" t="s">
         <v>75</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B42" s="23" t="s">
         <v>77</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>78</v>
       </c>
@@ -9345,7 +9343,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B44" s="23" t="s">
         <v>79</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -9433,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -9477,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>65</v>
       </c>
@@ -9537,7 +9535,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B49" s="19" t="s">
         <v>61</v>
       </c>
@@ -9555,7 +9553,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B50" s="19" t="s">
         <v>62</v>
       </c>
@@ -9607,16 +9605,16 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B53" s="51" t="s">
+    <row r="53" spans="2:15" ht="40" customHeight="1">
+      <c r="B53" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -9627,8 +9625,8 @@
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B54" s="52"/>
+    <row r="54" spans="2:15" ht="40" customHeight="1">
+      <c r="B54" s="48"/>
       <c r="C54" s="27">
         <v>2019</v>
       </c>
@@ -9651,7 +9649,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B55" s="23" t="s">
         <v>69</v>
       </c>
@@ -9677,7 +9675,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
     </row>
-    <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B56" s="23" t="s">
         <v>70</v>
       </c>
@@ -9703,7 +9701,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B57" s="23" t="s">
         <v>71</v>
       </c>
@@ -9729,7 +9727,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B58" s="23" t="s">
         <v>72</v>
       </c>
@@ -9755,7 +9753,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B59" s="23" t="s">
         <v>73</v>
       </c>
@@ -9781,7 +9779,7 @@
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B60" s="23" t="s">
         <v>75</v>
       </c>
@@ -9807,7 +9805,7 @@
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
     </row>
-    <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B61" s="23" t="s">
         <v>76</v>
       </c>
@@ -9833,7 +9831,7 @@
       <c r="N61" s="19"/>
       <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B62" s="23" t="s">
         <v>78</v>
       </c>
@@ -9859,7 +9857,7 @@
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
     </row>
-    <row r="63" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B63" s="23" t="s">
         <v>79</v>
       </c>
@@ -9885,7 +9883,7 @@
       <c r="N63" s="19"/>
       <c r="O63" s="19"/>
     </row>
-    <row r="64" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B64" s="23" t="s">
         <v>65</v>
       </c>
@@ -9927,7 +9925,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="19"/>
     </row>
-    <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B66" s="19" t="s">
         <v>61</v>
       </c>
@@ -9945,7 +9943,7 @@
       <c r="N66" s="19"/>
       <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B67" s="19" t="s">
         <v>62</v>
       </c>
@@ -9997,14 +9995,14 @@
       <c r="N69" s="19"/>
       <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B70" s="51" t="s">
+    <row r="70" spans="2:15" ht="40" customHeight="1">
+      <c r="B70" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -10017,8 +10015,8 @@
       <c r="N70" s="19"/>
       <c r="O70" s="19"/>
     </row>
-    <row r="71" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B71" s="52"/>
+    <row r="71" spans="2:15" ht="40" customHeight="1">
+      <c r="B71" s="48"/>
       <c r="C71" s="27">
         <v>2019</v>
       </c>
@@ -10037,7 +10035,7 @@
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
     </row>
-    <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B72" s="23" t="s">
         <v>69</v>
       </c>
@@ -10059,7 +10057,7 @@
       <c r="N72" s="19"/>
       <c r="O72" s="19"/>
     </row>
-    <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B73" s="23" t="s">
         <v>70</v>
       </c>
@@ -10081,7 +10079,7 @@
       <c r="N73" s="19"/>
       <c r="O73" s="19"/>
     </row>
-    <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B74" s="23" t="s">
         <v>73</v>
       </c>
@@ -10103,7 +10101,7 @@
       <c r="N74" s="19"/>
       <c r="O74" s="19"/>
     </row>
-    <row r="75" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B75" s="23" t="s">
         <v>74</v>
       </c>
@@ -10125,7 +10123,7 @@
       <c r="N75" s="19"/>
       <c r="O75" s="19"/>
     </row>
-    <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B76" s="23" t="s">
         <v>75</v>
       </c>
@@ -10147,7 +10145,7 @@
       <c r="N76" s="19"/>
       <c r="O76" s="19"/>
     </row>
-    <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B77" s="23" t="s">
         <v>76</v>
       </c>
@@ -10169,7 +10167,7 @@
       <c r="N77" s="19"/>
       <c r="O77" s="19"/>
     </row>
-    <row r="78" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B78" s="23" t="s">
         <v>65</v>
       </c>
@@ -10207,7 +10205,7 @@
       <c r="N79" s="19"/>
       <c r="O79" s="19"/>
     </row>
-    <row r="80" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B80" s="19" t="s">
         <v>61</v>
       </c>
@@ -10225,7 +10223,7 @@
       <c r="N80" s="19"/>
       <c r="O80" s="19"/>
     </row>
-    <row r="81" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B81" s="19" t="s">
         <v>62</v>
       </c>
@@ -10243,7 +10241,7 @@
       <c r="N81" s="19"/>
       <c r="O81" s="19"/>
     </row>
-    <row r="82" spans="2:15" ht="11.45" customHeight="1">
+    <row r="82" spans="2:15" ht="11.5" customHeight="1">
       <c r="B82" s="17"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
@@ -10277,28 +10275,28 @@
       <c r="N83" s="19"/>
       <c r="O83" s="19"/>
     </row>
-    <row r="84" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B84" s="51" t="s">
+    <row r="84" spans="2:15" ht="40" customHeight="1">
+      <c r="B84" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-    </row>
-    <row r="85" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B85" s="52"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+    </row>
+    <row r="85" spans="2:15" ht="40" customHeight="1">
+      <c r="B85" s="48"/>
       <c r="C85" s="27">
         <v>2011</v>
       </c>
@@ -10339,7 +10337,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B86" s="23" t="s">
         <v>69</v>
       </c>
@@ -10383,7 +10381,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B87" s="23" t="s">
         <v>70</v>
       </c>
@@ -10427,7 +10425,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B88" s="23" t="s">
         <v>71</v>
       </c>
@@ -10471,7 +10469,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B89" s="23" t="s">
         <v>72</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B90" s="23" t="s">
         <v>73</v>
       </c>
@@ -10559,7 +10557,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B91" s="23" t="s">
         <v>74</v>
       </c>
@@ -10603,7 +10601,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B92" s="23" t="s">
         <v>75</v>
       </c>
@@ -10647,7 +10645,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B93" s="23" t="s">
         <v>76</v>
       </c>
@@ -10691,7 +10689,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B94" s="23" t="s">
         <v>77</v>
       </c>
@@ -10735,7 +10733,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B95" s="23" t="s">
         <v>78</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B96" s="23" t="s">
         <v>79</v>
       </c>
@@ -10823,7 +10821,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B97" s="23" t="s">
         <v>80</v>
       </c>
@@ -10867,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B98" s="23" t="s">
         <v>81</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B99" s="23" t="s">
         <v>65</v>
       </c>
@@ -12261,26 +12259,24 @@
   </sheetPr>
   <dimension ref="B7:O23"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F21"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="80" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -12288,28 +12284,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="52"/>
       <c r="C11" s="22">
         <v>2011</v>
       </c>
@@ -12350,7 +12346,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>87</v>
       </c>
@@ -12394,7 +12390,7 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>88</v>
       </c>
@@ -12438,7 +12434,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>89</v>
       </c>
@@ -12482,7 +12478,7 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>90</v>
       </c>
@@ -12526,7 +12522,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>91</v>
       </c>
@@ -12570,7 +12566,7 @@
         <v>11696</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>92</v>
       </c>
@@ -12614,7 +12610,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>93</v>
       </c>
@@ -12658,7 +12654,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>94</v>
       </c>
@@ -12702,7 +12698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>95</v>
       </c>
@@ -12746,7 +12742,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>96</v>
       </c>
@@ -12790,7 +12786,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
@@ -12855,26 +12851,24 @@
   </sheetPr>
   <dimension ref="B7:O31"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E22"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="100" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -12882,28 +12876,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="52"/>
       <c r="C11" s="22">
         <v>2011</v>
       </c>
@@ -12944,7 +12938,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>98</v>
       </c>
@@ -12988,7 +12982,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
@@ -13032,7 +13026,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
@@ -13076,7 +13070,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
@@ -13120,7 +13114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>102</v>
       </c>
@@ -13164,7 +13158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>103</v>
       </c>
@@ -13208,7 +13202,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>104</v>
       </c>
@@ -13252,7 +13246,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>105</v>
       </c>
@@ -13296,7 +13290,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>106</v>
       </c>
@@ -13340,7 +13334,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>107</v>
       </c>
@@ -13384,7 +13378,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>108</v>
       </c>
@@ -13428,7 +13422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>109</v>
       </c>
@@ -13472,7 +13466,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>110</v>
       </c>
@@ -13516,7 +13510,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23" t="s">
         <v>111</v>
       </c>
@@ -13560,7 +13554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>112</v>
       </c>
@@ -13604,7 +13598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -13648,7 +13642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -13692,7 +13686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>115</v>
       </c>
@@ -13736,7 +13730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>85</v>
       </c>
@@ -13803,22 +13797,22 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="80" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -13826,28 +13820,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="52"/>
       <c r="C11" s="22">
         <v>2011</v>
       </c>
@@ -13888,7 +13882,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>116</v>
       </c>
@@ -13932,7 +13926,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>117</v>
       </c>
@@ -13976,7 +13970,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>118</v>
       </c>
@@ -14020,7 +14014,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>119</v>
       </c>
@@ -14064,7 +14058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>120</v>
       </c>
@@ -14108,7 +14102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
@@ -14152,7 +14146,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>122</v>
       </c>
@@ -14196,7 +14190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>123</v>
       </c>
@@ -14240,7 +14234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>124</v>
       </c>
@@ -14284,7 +14278,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>125</v>
       </c>
@@ -14328,7 +14322,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>126</v>
       </c>
@@ -14372,7 +14366,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>127</v>
       </c>
@@ -14416,7 +14410,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>128</v>
       </c>
@@ -14460,7 +14454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23" t="s">
         <v>129</v>
       </c>
@@ -14504,7 +14498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>130</v>
       </c>
@@ -14548,7 +14542,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>131</v>
       </c>
@@ -14592,7 +14586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>132</v>
       </c>
@@ -14636,7 +14630,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>133</v>
       </c>
@@ -14680,7 +14674,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>134</v>
       </c>
@@ -14724,7 +14718,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>135</v>
       </c>
@@ -14768,7 +14762,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>136</v>
       </c>
@@ -14812,7 +14806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B33" s="23" t="s">
         <v>137</v>
       </c>
@@ -14856,7 +14850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B34" s="23" t="s">
         <v>138</v>
       </c>
@@ -14900,7 +14894,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B35" s="23" t="s">
         <v>139</v>
       </c>
@@ -14944,7 +14938,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B36" s="23" t="s">
         <v>140</v>
       </c>
@@ -14988,7 +14982,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B37" s="23" t="s">
         <v>141</v>
       </c>
@@ -15032,7 +15026,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B38" s="23" t="s">
         <v>142</v>
       </c>
@@ -15076,7 +15070,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B39" s="23" t="s">
         <v>143</v>
       </c>
@@ -15120,7 +15114,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B40" s="23" t="s">
         <v>144</v>
       </c>
@@ -15164,7 +15158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B41" s="23" t="s">
         <v>145</v>
       </c>
@@ -15208,7 +15202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B42" s="23" t="s">
         <v>146</v>
       </c>
@@ -15252,7 +15246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>147</v>
       </c>
@@ -15296,7 +15290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B44" s="23" t="s">
         <v>148</v>
       </c>
@@ -15340,7 +15334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>149</v>
       </c>
@@ -15384,7 +15378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>150</v>
       </c>
@@ -15428,7 +15422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>151</v>
       </c>
@@ -15472,7 +15466,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B48" s="23" t="s">
         <v>152</v>
       </c>
@@ -15516,7 +15510,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B49" s="23" t="s">
         <v>153</v>
       </c>
@@ -15560,7 +15554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B50" s="23" t="s">
         <v>154</v>
       </c>
@@ -15604,7 +15598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>155</v>
       </c>
@@ -15648,7 +15642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>156</v>
       </c>
@@ -15692,7 +15686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B53" s="23" t="s">
         <v>157</v>
       </c>
@@ -15736,7 +15730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B54" s="23" t="s">
         <v>158</v>
       </c>
@@ -15780,7 +15774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B55" s="23" t="s">
         <v>159</v>
       </c>
@@ -15824,7 +15818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B56" s="23" t="s">
         <v>160</v>
       </c>
@@ -15868,7 +15862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B57" s="23" t="s">
         <v>161</v>
       </c>
@@ -15912,7 +15906,7 @@
         <v>5807</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B58" s="23" t="s">
         <v>162</v>
       </c>
@@ -15956,7 +15950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B59" s="23" t="s">
         <v>85</v>
       </c>
@@ -16021,27 +16015,25 @@
   </sheetPr>
   <dimension ref="B7:P68"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="3" width="80" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:16" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:16" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:16" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -16049,30 +16041,30 @@
     <row r="9" spans="2:16" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:16" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="58" t="s">
+    <row r="10" spans="2:16" ht="40" customHeight="1">
+      <c r="B10" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-    </row>
-    <row r="11" spans="2:16" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="2:16" ht="40" customHeight="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="22">
         <v>2011</v>
       </c>
@@ -16113,8 +16105,8 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="58" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -16160,8 +16152,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="63"/>
+    <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="59"/>
       <c r="C13" s="31" t="s">
         <v>166</v>
       </c>
@@ -16205,8 +16197,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="63"/>
+    <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="59"/>
       <c r="C14" s="31" t="s">
         <v>167</v>
       </c>
@@ -16250,8 +16242,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="63"/>
+    <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="59"/>
       <c r="C15" s="31" t="s">
         <v>168</v>
       </c>
@@ -16295,8 +16287,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="63"/>
+    <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="59"/>
       <c r="C16" s="31" t="s">
         <v>169</v>
       </c>
@@ -16340,8 +16332,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="63"/>
+    <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="59"/>
       <c r="C17" s="31" t="s">
         <v>170</v>
       </c>
@@ -16385,8 +16377,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="63"/>
+    <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B18" s="59"/>
       <c r="C18" s="31" t="s">
         <v>171</v>
       </c>
@@ -16430,8 +16422,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="63"/>
+    <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="59"/>
       <c r="C19" s="31" t="s">
         <v>172</v>
       </c>
@@ -16475,8 +16467,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="63"/>
+    <row r="20" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="59"/>
       <c r="C20" s="31" t="s">
         <v>173</v>
       </c>
@@ -16520,8 +16512,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="64"/>
+    <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="60"/>
       <c r="C21" s="31" t="s">
         <v>174</v>
       </c>
@@ -16565,8 +16557,8 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B22" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -16612,8 +16604,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="63"/>
+    <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B23" s="59"/>
       <c r="C23" s="31" t="s">
         <v>177</v>
       </c>
@@ -16657,8 +16649,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="63"/>
+    <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B24" s="59"/>
       <c r="C24" s="31" t="s">
         <v>178</v>
       </c>
@@ -16702,8 +16694,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="63"/>
+    <row r="25" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B25" s="59"/>
       <c r="C25" s="31" t="s">
         <v>179</v>
       </c>
@@ -16747,8 +16739,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="63"/>
+    <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B26" s="59"/>
       <c r="C26" s="31" t="s">
         <v>180</v>
       </c>
@@ -16792,8 +16784,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="63"/>
+    <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B27" s="59"/>
       <c r="C27" s="31" t="s">
         <v>181</v>
       </c>
@@ -16837,8 +16829,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="63"/>
+    <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B28" s="59"/>
       <c r="C28" s="31" t="s">
         <v>182</v>
       </c>
@@ -16882,8 +16874,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="63"/>
+    <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B29" s="59"/>
       <c r="C29" s="31" t="s">
         <v>183</v>
       </c>
@@ -16927,8 +16919,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="64"/>
+    <row r="30" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B30" s="60"/>
       <c r="C30" s="31" t="s">
         <v>174</v>
       </c>
@@ -16972,8 +16964,8 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B31" s="58" t="s">
         <v>184</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -17019,8 +17011,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="63"/>
+    <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B32" s="59"/>
       <c r="C32" s="31" t="s">
         <v>186</v>
       </c>
@@ -17064,8 +17056,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="63"/>
+    <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B33" s="59"/>
       <c r="C33" s="31" t="s">
         <v>187</v>
       </c>
@@ -17109,8 +17101,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="63"/>
+    <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B34" s="59"/>
       <c r="C34" s="31" t="s">
         <v>188</v>
       </c>
@@ -17154,8 +17146,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="63"/>
+    <row r="35" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B35" s="59"/>
       <c r="C35" s="31" t="s">
         <v>189</v>
       </c>
@@ -17199,8 +17191,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="63"/>
+    <row r="36" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B36" s="59"/>
       <c r="C36" s="31" t="s">
         <v>190</v>
       </c>
@@ -17244,8 +17236,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="64"/>
+    <row r="37" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B37" s="60"/>
       <c r="C37" s="31" t="s">
         <v>174</v>
       </c>
@@ -17289,8 +17281,8 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B38" s="58" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -17336,8 +17328,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="63"/>
+    <row r="39" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B39" s="59"/>
       <c r="C39" s="31" t="s">
         <v>193</v>
       </c>
@@ -17381,8 +17373,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="63"/>
+    <row r="40" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B40" s="59"/>
       <c r="C40" s="31" t="s">
         <v>194</v>
       </c>
@@ -17426,8 +17418,8 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="63"/>
+    <row r="41" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B41" s="59"/>
       <c r="C41" s="31" t="s">
         <v>195</v>
       </c>
@@ -17471,8 +17463,8 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="63"/>
+    <row r="42" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B42" s="59"/>
       <c r="C42" s="31" t="s">
         <v>196</v>
       </c>
@@ -17516,8 +17508,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="39.950000000000003" customHeight="1">
-      <c r="B43" s="63"/>
+    <row r="43" spans="2:16" ht="40" customHeight="1">
+      <c r="B43" s="59"/>
       <c r="C43" s="31" t="s">
         <v>197</v>
       </c>
@@ -17561,8 +17553,8 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="63"/>
+    <row r="44" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B44" s="59"/>
       <c r="C44" s="31" t="s">
         <v>198</v>
       </c>
@@ -17606,8 +17598,8 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="64"/>
+    <row r="45" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B45" s="60"/>
       <c r="C45" s="31" t="s">
         <v>174</v>
       </c>
@@ -17651,8 +17643,8 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B46" s="58" t="s">
         <v>199</v>
       </c>
       <c r="C46" s="31" t="s">
@@ -17698,8 +17690,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="63"/>
+    <row r="47" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B47" s="59"/>
       <c r="C47" s="31" t="s">
         <v>201</v>
       </c>
@@ -17743,8 +17735,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="63"/>
+    <row r="48" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B48" s="59"/>
       <c r="C48" s="31" t="s">
         <v>202</v>
       </c>
@@ -17788,8 +17780,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="64"/>
+    <row r="49" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B49" s="60"/>
       <c r="C49" s="31" t="s">
         <v>174</v>
       </c>
@@ -17833,8 +17825,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="62" t="s">
+    <row r="50" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B50" s="58" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -17880,8 +17872,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="63"/>
+    <row r="51" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B51" s="59"/>
       <c r="C51" s="31" t="s">
         <v>205</v>
       </c>
@@ -17925,8 +17917,8 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="63"/>
+    <row r="52" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B52" s="59"/>
       <c r="C52" s="31" t="s">
         <v>206</v>
       </c>
@@ -17970,8 +17962,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="64"/>
+    <row r="53" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B53" s="60"/>
       <c r="C53" s="31" t="s">
         <v>174</v>
       </c>
@@ -18015,8 +18007,8 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="62" t="s">
+    <row r="54" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B54" s="58" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -18062,8 +18054,8 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="63"/>
+    <row r="55" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B55" s="59"/>
       <c r="C55" s="31" t="s">
         <v>209</v>
       </c>
@@ -18107,8 +18099,8 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="63"/>
+    <row r="56" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B56" s="59"/>
       <c r="C56" s="31" t="s">
         <v>210</v>
       </c>
@@ -18152,8 +18144,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="64"/>
+    <row r="57" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B57" s="60"/>
       <c r="C57" s="31" t="s">
         <v>174</v>
       </c>
@@ -18197,8 +18189,8 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="62" t="s">
+    <row r="58" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B58" s="58" t="s">
         <v>211</v>
       </c>
       <c r="C58" s="31" t="s">
@@ -18244,8 +18236,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="63"/>
+    <row r="59" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B59" s="59"/>
       <c r="C59" s="31" t="s">
         <v>213</v>
       </c>
@@ -18289,8 +18281,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="63"/>
+    <row r="60" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B60" s="59"/>
       <c r="C60" s="31" t="s">
         <v>214</v>
       </c>
@@ -18334,8 +18326,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="63"/>
+    <row r="61" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B61" s="59"/>
       <c r="C61" s="31" t="s">
         <v>215</v>
       </c>
@@ -18379,8 +18371,8 @@
         <v>7294</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="63"/>
+    <row r="62" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B62" s="59"/>
       <c r="C62" s="31" t="s">
         <v>216</v>
       </c>
@@ -18424,8 +18416,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="64"/>
+    <row r="63" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B63" s="60"/>
       <c r="C63" s="31" t="s">
         <v>174</v>
       </c>
@@ -18469,8 +18461,8 @@
         <v>7943</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="62" t="s">
+    <row r="64" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B64" s="58" t="s">
         <v>217</v>
       </c>
       <c r="C64" s="31" t="s">
@@ -18516,8 +18508,8 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="63"/>
+    <row r="65" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B65" s="59"/>
       <c r="C65" s="31" t="s">
         <v>219</v>
       </c>
@@ -18561,8 +18553,8 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="64"/>
+    <row r="66" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B66" s="60"/>
       <c r="C66" s="32" t="s">
         <v>174</v>
       </c>
@@ -18606,11 +18598,11 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="57" t="s">
+    <row r="67" spans="2:16" ht="20.149999999999999" customHeight="1">
+      <c r="B67" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="57"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="24">
         <v>29347</v>
       </c>
@@ -18683,24 +18675,24 @@
   </sheetPr>
   <dimension ref="B7:O354"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="80" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.7265625" style="3" customWidth="1"/>
     <col min="14" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -18708,28 +18700,28 @@
     <row r="9" spans="2:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="2:15" ht="40" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="65"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="56"/>
+    <row r="11" spans="2:15" ht="40" customHeight="1">
+      <c r="B11" s="52"/>
       <c r="C11" s="22">
         <v>2011</v>
       </c>
@@ -18770,7 +18762,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>220</v>
       </c>
@@ -18814,7 +18806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>221</v>
       </c>
@@ -18858,7 +18850,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>222</v>
       </c>
@@ -18902,7 +18894,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>223</v>
       </c>
@@ -18946,7 +18938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="23" t="s">
         <v>224</v>
       </c>
@@ -18990,7 +18982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>225</v>
       </c>
@@ -19034,7 +19026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>226</v>
       </c>
@@ -19078,7 +19070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>227</v>
       </c>
@@ -19122,7 +19114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>228</v>
       </c>
@@ -19166,7 +19158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>229</v>
       </c>
@@ -19210,7 +19202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>230</v>
       </c>
@@ -19254,7 +19246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>231</v>
       </c>
@@ -19298,7 +19290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>232</v>
       </c>
@@ -19342,7 +19334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B25" s="23" t="s">
         <v>233</v>
       </c>
@@ -19386,7 +19378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>234</v>
       </c>
@@ -19430,7 +19422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>235</v>
       </c>
@@ -19474,7 +19466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>236</v>
       </c>
@@ -19518,7 +19510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>237</v>
       </c>
@@ -19562,7 +19554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>238</v>
       </c>
@@ -19606,7 +19598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>239</v>
       </c>
@@ -19650,7 +19642,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>240</v>
       </c>
@@ -19694,7 +19686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B33" s="23" t="s">
         <v>241</v>
       </c>
@@ -19738,7 +19730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B34" s="23" t="s">
         <v>242</v>
       </c>
@@ -19782,7 +19774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B35" s="23" t="s">
         <v>243</v>
       </c>
@@ -19826,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B36" s="23" t="s">
         <v>244</v>
       </c>
@@ -19870,7 +19862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B37" s="23" t="s">
         <v>245</v>
       </c>
@@ -19914,7 +19906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B38" s="23" t="s">
         <v>246</v>
       </c>
@@ -19958,7 +19950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B39" s="23" t="s">
         <v>247</v>
       </c>
@@ -20002,7 +19994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B40" s="23" t="s">
         <v>248</v>
       </c>
@@ -20046,7 +20038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B41" s="23" t="s">
         <v>249</v>
       </c>
@@ -20090,7 +20082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B42" s="23" t="s">
         <v>250</v>
       </c>
@@ -20134,7 +20126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>251</v>
       </c>
@@ -20178,7 +20170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B44" s="23" t="s">
         <v>252</v>
       </c>
@@ -20222,7 +20214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>253</v>
       </c>
@@ -20266,7 +20258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>254</v>
       </c>
@@ -20310,7 +20302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>255</v>
       </c>
@@ -20354,7 +20346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B48" s="23" t="s">
         <v>256</v>
       </c>
@@ -20398,7 +20390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B49" s="23" t="s">
         <v>257</v>
       </c>
@@ -20442,7 +20434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B50" s="23" t="s">
         <v>258</v>
       </c>
@@ -20486,7 +20478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>259</v>
       </c>
@@ -20530,7 +20522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>260</v>
       </c>
@@ -20574,7 +20566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B53" s="23" t="s">
         <v>261</v>
       </c>
@@ -20618,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B54" s="23" t="s">
         <v>262</v>
       </c>
@@ -20662,7 +20654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B55" s="23" t="s">
         <v>263</v>
       </c>
@@ -20706,7 +20698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B56" s="23" t="s">
         <v>264</v>
       </c>
@@ -20750,7 +20742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B57" s="23" t="s">
         <v>265</v>
       </c>
@@ -20794,7 +20786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B58" s="23" t="s">
         <v>266</v>
       </c>
@@ -20838,7 +20830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B59" s="23" t="s">
         <v>267</v>
       </c>
@@ -20882,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B60" s="23" t="s">
         <v>268</v>
       </c>
@@ -20926,7 +20918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B61" s="23" t="s">
         <v>269</v>
       </c>
@@ -20970,7 +20962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B62" s="23" t="s">
         <v>270</v>
       </c>
@@ -21014,7 +21006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B63" s="23" t="s">
         <v>271</v>
       </c>
@@ -21058,7 +21050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B64" s="23" t="s">
         <v>272</v>
       </c>
@@ -21102,7 +21094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B65" s="23" t="s">
         <v>273</v>
       </c>
@@ -21146,7 +21138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B66" s="23" t="s">
         <v>274</v>
       </c>
@@ -21190,7 +21182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B67" s="23" t="s">
         <v>275</v>
       </c>
@@ -21234,7 +21226,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B68" s="23" t="s">
         <v>276</v>
       </c>
@@ -21278,7 +21270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B69" s="23" t="s">
         <v>277</v>
       </c>
@@ -21322,7 +21314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B70" s="23" t="s">
         <v>278</v>
       </c>
@@ -21366,7 +21358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B71" s="23" t="s">
         <v>279</v>
       </c>
@@ -21410,7 +21402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B72" s="23" t="s">
         <v>280</v>
       </c>
@@ -21454,7 +21446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B73" s="23" t="s">
         <v>281</v>
       </c>
@@ -21498,7 +21490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B74" s="23" t="s">
         <v>282</v>
       </c>
@@ -21542,7 +21534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B75" s="23" t="s">
         <v>283</v>
       </c>
@@ -21586,7 +21578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B76" s="23" t="s">
         <v>284</v>
       </c>
@@ -21630,7 +21622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B77" s="23" t="s">
         <v>285</v>
       </c>
@@ -21674,7 +21666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B78" s="23" t="s">
         <v>286</v>
       </c>
@@ -21718,7 +21710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B79" s="23" t="s">
         <v>287</v>
       </c>
@@ -21762,7 +21754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B80" s="23" t="s">
         <v>288</v>
       </c>
@@ -21806,7 +21798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B81" s="23" t="s">
         <v>289</v>
       </c>
@@ -21850,7 +21842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B82" s="23" t="s">
         <v>290</v>
       </c>
@@ -21894,7 +21886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B83" s="23" t="s">
         <v>291</v>
       </c>
@@ -21938,7 +21930,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B84" s="23" t="s">
         <v>292</v>
       </c>
@@ -21982,7 +21974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B85" s="23" t="s">
         <v>293</v>
       </c>
@@ -22026,7 +22018,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B86" s="23" t="s">
         <v>294</v>
       </c>
@@ -22070,7 +22062,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B87" s="23" t="s">
         <v>295</v>
       </c>
@@ -22114,7 +22106,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B88" s="23" t="s">
         <v>296</v>
       </c>
@@ -22158,7 +22150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B89" s="23" t="s">
         <v>297</v>
       </c>
@@ -22202,7 +22194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B90" s="23" t="s">
         <v>298</v>
       </c>
@@ -22246,7 +22238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B91" s="23" t="s">
         <v>299</v>
       </c>
@@ -22290,7 +22282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B92" s="23" t="s">
         <v>300</v>
       </c>
@@ -22334,7 +22326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B93" s="23" t="s">
         <v>301</v>
       </c>
@@ -22378,7 +22370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B94" s="23" t="s">
         <v>302</v>
       </c>
@@ -22422,7 +22414,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B95" s="23" t="s">
         <v>303</v>
       </c>
@@ -22466,7 +22458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B96" s="23" t="s">
         <v>304</v>
       </c>
@@ -22510,7 +22502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B97" s="23" t="s">
         <v>305</v>
       </c>
@@ -22554,7 +22546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B98" s="23" t="s">
         <v>306</v>
       </c>
@@ -22598,7 +22590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B99" s="23" t="s">
         <v>307</v>
       </c>
@@ -22642,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B100" s="23" t="s">
         <v>308</v>
       </c>
@@ -22686,7 +22678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B101" s="23" t="s">
         <v>309</v>
       </c>
@@ -22730,7 +22722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B102" s="23" t="s">
         <v>310</v>
       </c>
@@ -22774,7 +22766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B103" s="23" t="s">
         <v>311</v>
       </c>
@@ -22818,7 +22810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B104" s="23" t="s">
         <v>312</v>
       </c>
@@ -22862,7 +22854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B105" s="23" t="s">
         <v>313</v>
       </c>
@@ -22906,7 +22898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B106" s="23" t="s">
         <v>314</v>
       </c>
@@ -22950,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B107" s="23" t="s">
         <v>315</v>
       </c>
@@ -22994,7 +22986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B108" s="23" t="s">
         <v>316</v>
       </c>
@@ -23038,7 +23030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B109" s="23" t="s">
         <v>317</v>
       </c>
@@ -23082,7 +23074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B110" s="23" t="s">
         <v>318</v>
       </c>
@@ -23126,7 +23118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B111" s="23" t="s">
         <v>319</v>
       </c>
@@ -23170,7 +23162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B112" s="23" t="s">
         <v>320</v>
       </c>
@@ -23214,7 +23206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B113" s="23" t="s">
         <v>321</v>
       </c>
@@ -23258,7 +23250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B114" s="23" t="s">
         <v>322</v>
       </c>
@@ -23302,7 +23294,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B115" s="23" t="s">
         <v>323</v>
       </c>
@@ -23346,7 +23338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B116" s="23" t="s">
         <v>324</v>
       </c>
@@ -23390,7 +23382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="117" spans="2:15" ht="40" customHeight="1">
       <c r="B117" s="23" t="s">
         <v>325</v>
       </c>
@@ -23434,7 +23426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B118" s="23" t="s">
         <v>326</v>
       </c>
@@ -23478,7 +23470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B119" s="23" t="s">
         <v>327</v>
       </c>
@@ -23522,7 +23514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B120" s="23" t="s">
         <v>328</v>
       </c>
@@ -23566,7 +23558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B121" s="23" t="s">
         <v>329</v>
       </c>
@@ -23610,7 +23602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B122" s="23" t="s">
         <v>330</v>
       </c>
@@ -23654,7 +23646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="123" spans="2:15" ht="40" customHeight="1">
       <c r="B123" s="23" t="s">
         <v>331</v>
       </c>
@@ -23698,7 +23690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B124" s="23" t="s">
         <v>332</v>
       </c>
@@ -23742,7 +23734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B125" s="23" t="s">
         <v>333</v>
       </c>
@@ -23786,7 +23778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B126" s="23" t="s">
         <v>334</v>
       </c>
@@ -23830,7 +23822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B127" s="23" t="s">
         <v>335</v>
       </c>
@@ -23874,7 +23866,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B128" s="23" t="s">
         <v>336</v>
       </c>
@@ -23918,7 +23910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B129" s="23" t="s">
         <v>337</v>
       </c>
@@ -23962,7 +23954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B130" s="23" t="s">
         <v>338</v>
       </c>
@@ -24006,7 +23998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B131" s="23" t="s">
         <v>339</v>
       </c>
@@ -24050,7 +24042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B132" s="23" t="s">
         <v>340</v>
       </c>
@@ -24094,7 +24086,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B133" s="23" t="s">
         <v>341</v>
       </c>
@@ -24138,7 +24130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="134" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B134" s="23" t="s">
         <v>342</v>
       </c>
@@ -24182,7 +24174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B135" s="23" t="s">
         <v>343</v>
       </c>
@@ -24226,7 +24218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="136" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B136" s="23" t="s">
         <v>344</v>
       </c>
@@ -24270,7 +24262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B137" s="23" t="s">
         <v>345</v>
       </c>
@@ -24314,7 +24306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B138" s="23" t="s">
         <v>346</v>
       </c>
@@ -24358,7 +24350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="139" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B139" s="23" t="s">
         <v>347</v>
       </c>
@@ -24402,7 +24394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="140" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B140" s="23" t="s">
         <v>348</v>
       </c>
@@ -24446,7 +24438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B141" s="23" t="s">
         <v>349</v>
       </c>
@@ -24490,7 +24482,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B142" s="23" t="s">
         <v>350</v>
       </c>
@@ -24534,7 +24526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B143" s="23" t="s">
         <v>351</v>
       </c>
@@ -24578,7 +24570,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B144" s="23" t="s">
         <v>352</v>
       </c>
@@ -24622,7 +24614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="145" spans="2:15" ht="40" customHeight="1">
       <c r="B145" s="23" t="s">
         <v>353</v>
       </c>
@@ -24666,7 +24658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B146" s="23" t="s">
         <v>354</v>
       </c>
@@ -24710,7 +24702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="147" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B147" s="23" t="s">
         <v>355</v>
       </c>
@@ -24754,7 +24746,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="148" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B148" s="23" t="s">
         <v>356</v>
       </c>
@@ -24798,7 +24790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="149" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B149" s="23" t="s">
         <v>357</v>
       </c>
@@ -24842,7 +24834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="150" spans="2:15" ht="40" customHeight="1">
       <c r="B150" s="23" t="s">
         <v>358</v>
       </c>
@@ -24886,7 +24878,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="151" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B151" s="23" t="s">
         <v>359</v>
       </c>
@@ -24930,7 +24922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="152" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B152" s="23" t="s">
         <v>360</v>
       </c>
@@ -24974,7 +24966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="153" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B153" s="23" t="s">
         <v>361</v>
       </c>
@@ -25018,7 +25010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="154" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B154" s="23" t="s">
         <v>362</v>
       </c>
@@ -25062,7 +25054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="155" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B155" s="23" t="s">
         <v>363</v>
       </c>
@@ -25106,7 +25098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B156" s="23" t="s">
         <v>364</v>
       </c>
@@ -25150,7 +25142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="157" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B157" s="23" t="s">
         <v>365</v>
       </c>
@@ -25194,7 +25186,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="158" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B158" s="23" t="s">
         <v>366</v>
       </c>
@@ -25238,7 +25230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="159" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B159" s="23" t="s">
         <v>367</v>
       </c>
@@ -25282,7 +25274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B160" s="23" t="s">
         <v>368</v>
       </c>
@@ -25326,7 +25318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B161" s="23" t="s">
         <v>369</v>
       </c>
@@ -25370,7 +25362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="162" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B162" s="23" t="s">
         <v>370</v>
       </c>
@@ -25414,7 +25406,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B163" s="23" t="s">
         <v>371</v>
       </c>
@@ -25458,7 +25450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="164" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B164" s="23" t="s">
         <v>372</v>
       </c>
@@ -25502,7 +25494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B165" s="23" t="s">
         <v>373</v>
       </c>
@@ -25546,7 +25538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B166" s="23" t="s">
         <v>374</v>
       </c>
@@ -25590,7 +25582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="167" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B167" s="23" t="s">
         <v>375</v>
       </c>
@@ -25634,7 +25626,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="168" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B168" s="23" t="s">
         <v>376</v>
       </c>
@@ -25678,7 +25670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B169" s="23" t="s">
         <v>377</v>
       </c>
@@ -25722,7 +25714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="170" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B170" s="23" t="s">
         <v>378</v>
       </c>
@@ -25766,7 +25758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="171" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B171" s="23" t="s">
         <v>379</v>
       </c>
@@ -25810,7 +25802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="172" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B172" s="23" t="s">
         <v>380</v>
       </c>
@@ -25854,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B173" s="23" t="s">
         <v>381</v>
       </c>
@@ -25898,7 +25890,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="174" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B174" s="23" t="s">
         <v>382</v>
       </c>
@@ -25942,7 +25934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B175" s="23" t="s">
         <v>383</v>
       </c>
@@ -25986,7 +25978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B176" s="23" t="s">
         <v>384</v>
       </c>
@@ -26030,7 +26022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B177" s="23" t="s">
         <v>385</v>
       </c>
@@ -26074,7 +26066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B178" s="23" t="s">
         <v>386</v>
       </c>
@@ -26118,7 +26110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="179" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B179" s="23" t="s">
         <v>387</v>
       </c>
@@ -26162,7 +26154,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="180" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="180" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B180" s="23" t="s">
         <v>388</v>
       </c>
@@ -26206,7 +26198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="181" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B181" s="23" t="s">
         <v>389</v>
       </c>
@@ -26250,7 +26242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="182" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B182" s="23" t="s">
         <v>390</v>
       </c>
@@ -26294,7 +26286,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="183" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B183" s="23" t="s">
         <v>391</v>
       </c>
@@ -26338,7 +26330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="184" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B184" s="23" t="s">
         <v>392</v>
       </c>
@@ -26382,7 +26374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="185" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="185" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B185" s="23" t="s">
         <v>393</v>
       </c>
@@ -26426,7 +26418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="186" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B186" s="23" t="s">
         <v>394</v>
       </c>
@@ -26470,7 +26462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="187" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B187" s="23" t="s">
         <v>395</v>
       </c>
@@ -26514,7 +26506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="188" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B188" s="23" t="s">
         <v>396</v>
       </c>
@@ -26558,7 +26550,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="189" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B189" s="23" t="s">
         <v>397</v>
       </c>
@@ -26602,7 +26594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="190" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="190" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B190" s="23" t="s">
         <v>398</v>
       </c>
@@ -26646,7 +26638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="191" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B191" s="23" t="s">
         <v>399</v>
       </c>
@@ -26690,7 +26682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="192" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B192" s="23" t="s">
         <v>582</v>
       </c>
@@ -26734,7 +26726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="193" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B193" s="23" t="s">
         <v>400</v>
       </c>
@@ -26778,7 +26770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="194" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B194" s="23" t="s">
         <v>401</v>
       </c>
@@ -26822,7 +26814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="195" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B195" s="23" t="s">
         <v>402</v>
       </c>
@@ -26866,7 +26858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="196" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B196" s="23" t="s">
         <v>403</v>
       </c>
@@ -26910,7 +26902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="197" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B197" s="23" t="s">
         <v>404</v>
       </c>
@@ -26954,7 +26946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="198" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B198" s="23" t="s">
         <v>405</v>
       </c>
@@ -26998,7 +26990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="199" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B199" s="23" t="s">
         <v>406</v>
       </c>
@@ -27042,7 +27034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="200" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B200" s="23" t="s">
         <v>407</v>
       </c>
@@ -27086,7 +27078,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="201" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B201" s="23" t="s">
         <v>408</v>
       </c>
@@ -27130,7 +27122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B202" s="23" t="s">
         <v>409</v>
       </c>
@@ -27174,7 +27166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="203" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B203" s="23" t="s">
         <v>410</v>
       </c>
@@ -27218,7 +27210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="204" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B204" s="23" t="s">
         <v>411</v>
       </c>
@@ -27262,7 +27254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="205" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B205" s="23" t="s">
         <v>412</v>
       </c>
@@ -27306,7 +27298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="206" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B206" s="23" t="s">
         <v>413</v>
       </c>
@@ -27350,7 +27342,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B207" s="23" t="s">
         <v>414</v>
       </c>
@@ -27394,7 +27386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="208" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B208" s="23" t="s">
         <v>415</v>
       </c>
@@ -27438,7 +27430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="209" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B209" s="23" t="s">
         <v>416</v>
       </c>
@@ -27482,7 +27474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="210" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B210" s="23" t="s">
         <v>417</v>
       </c>
@@ -27526,7 +27518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B211" s="23" t="s">
         <v>418</v>
       </c>
@@ -27570,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="212" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B212" s="23" t="s">
         <v>419</v>
       </c>
@@ -27614,7 +27606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="213" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B213" s="23" t="s">
         <v>420</v>
       </c>
@@ -27658,7 +27650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="214" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B214" s="23" t="s">
         <v>421</v>
       </c>
@@ -27702,7 +27694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="215" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B215" s="23" t="s">
         <v>422</v>
       </c>
@@ -27746,7 +27738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="216" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B216" s="23" t="s">
         <v>423</v>
       </c>
@@ -27790,7 +27782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="217" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B217" s="23" t="s">
         <v>424</v>
       </c>
@@ -27834,7 +27826,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="218" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B218" s="23" t="s">
         <v>425</v>
       </c>
@@ -27878,7 +27870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="219" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B219" s="23" t="s">
         <v>426</v>
       </c>
@@ -27922,7 +27914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="220" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B220" s="23" t="s">
         <v>427</v>
       </c>
@@ -27966,7 +27958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="221" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B221" s="23" t="s">
         <v>428</v>
       </c>
@@ -28010,7 +28002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="222" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B222" s="23" t="s">
         <v>429</v>
       </c>
@@ -28054,7 +28046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B223" s="23" t="s">
         <v>430</v>
       </c>
@@ -28098,7 +28090,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="224" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="224" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B224" s="23" t="s">
         <v>431</v>
       </c>
@@ -28142,7 +28134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="225" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B225" s="23" t="s">
         <v>432</v>
       </c>
@@ -28186,7 +28178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="226" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B226" s="23" t="s">
         <v>433</v>
       </c>
@@ -28230,7 +28222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="227" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B227" s="23" t="s">
         <v>434</v>
       </c>
@@ -28274,7 +28266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="228" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B228" s="23" t="s">
         <v>435</v>
       </c>
@@ -28318,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="229" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B229" s="23" t="s">
         <v>436</v>
       </c>
@@ -28362,7 +28354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="230" spans="2:15" ht="40" customHeight="1">
       <c r="B230" s="23" t="s">
         <v>437</v>
       </c>
@@ -28406,7 +28398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="231" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B231" s="23" t="s">
         <v>438</v>
       </c>
@@ -28450,7 +28442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="232" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B232" s="23" t="s">
         <v>439</v>
       </c>
@@ -28494,7 +28486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="233" spans="2:15" ht="40" customHeight="1">
       <c r="B233" s="23" t="s">
         <v>440</v>
       </c>
@@ -28538,7 +28530,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="234" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B234" s="23" t="s">
         <v>441</v>
       </c>
@@ -28582,7 +28574,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="235" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B235" s="23" t="s">
         <v>442</v>
       </c>
@@ -28626,7 +28618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="236" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B236" s="23" t="s">
         <v>443</v>
       </c>
@@ -28670,7 +28662,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="237" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B237" s="23" t="s">
         <v>444</v>
       </c>
@@ -28714,7 +28706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="238" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B238" s="23" t="s">
         <v>445</v>
       </c>
@@ -28758,7 +28750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="239" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B239" s="23" t="s">
         <v>446</v>
       </c>
@@ -28802,7 +28794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="240" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B240" s="23" t="s">
         <v>447</v>
       </c>
@@ -28846,7 +28838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="241" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B241" s="23" t="s">
         <v>448</v>
       </c>
@@ -28890,7 +28882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="242" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B242" s="23" t="s">
         <v>449</v>
       </c>
@@ -28934,7 +28926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="243" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B243" s="23" t="s">
         <v>450</v>
       </c>
@@ -28978,7 +28970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="244" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B244" s="23" t="s">
         <v>451</v>
       </c>
@@ -29022,7 +29014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="245" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B245" s="23" t="s">
         <v>452</v>
       </c>
@@ -29066,7 +29058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="246" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B246" s="23" t="s">
         <v>453</v>
       </c>
@@ -29110,7 +29102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="247" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B247" s="23" t="s">
         <v>454</v>
       </c>
@@ -29154,7 +29146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="248" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B248" s="23" t="s">
         <v>455</v>
       </c>
@@ -29198,7 +29190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="249" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B249" s="23" t="s">
         <v>456</v>
       </c>
@@ -29242,7 +29234,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="250" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="250" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B250" s="23" t="s">
         <v>457</v>
       </c>
@@ -29286,7 +29278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="251" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B251" s="23" t="s">
         <v>458</v>
       </c>
@@ -29330,7 +29322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="252" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B252" s="23" t="s">
         <v>459</v>
       </c>
@@ -29374,7 +29366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="253" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B253" s="23" t="s">
         <v>460</v>
       </c>
@@ -29418,7 +29410,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="254" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="254" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B254" s="23" t="s">
         <v>461</v>
       </c>
@@ -29462,7 +29454,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="255" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B255" s="23" t="s">
         <v>462</v>
       </c>
@@ -29506,7 +29498,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="256" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="256" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B256" s="23" t="s">
         <v>463</v>
       </c>
@@ -29550,7 +29542,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="257" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="257" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B257" s="23" t="s">
         <v>464</v>
       </c>
@@ -29594,7 +29586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="258" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B258" s="23" t="s">
         <v>465</v>
       </c>
@@ -29638,7 +29630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="259" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="259" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B259" s="23" t="s">
         <v>466</v>
       </c>
@@ -29682,7 +29674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="260" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B260" s="23" t="s">
         <v>467</v>
       </c>
@@ -29726,7 +29718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="261" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B261" s="23" t="s">
         <v>468</v>
       </c>
@@ -29770,7 +29762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="262" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B262" s="23" t="s">
         <v>469</v>
       </c>
@@ -29814,7 +29806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="263" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="263" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B263" s="23" t="s">
         <v>470</v>
       </c>
@@ -29858,7 +29850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="264" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="264" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B264" s="23" t="s">
         <v>471</v>
       </c>
@@ -29902,7 +29894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="265" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B265" s="23" t="s">
         <v>472</v>
       </c>
@@ -29946,7 +29938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="266" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B266" s="23" t="s">
         <v>473</v>
       </c>
@@ -29990,7 +29982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="267" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B267" s="23" t="s">
         <v>474</v>
       </c>
@@ -30034,7 +30026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="268" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B268" s="23" t="s">
         <v>475</v>
       </c>
@@ -30078,7 +30070,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="269" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="269" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B269" s="23" t="s">
         <v>476</v>
       </c>
@@ -30122,7 +30114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="270" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B270" s="23" t="s">
         <v>477</v>
       </c>
@@ -30166,7 +30158,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="271" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="271" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B271" s="23" t="s">
         <v>478</v>
       </c>
@@ -30210,7 +30202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="272" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B272" s="23" t="s">
         <v>479</v>
       </c>
@@ -30254,7 +30246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="273" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="273" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B273" s="23" t="s">
         <v>480</v>
       </c>
@@ -30298,7 +30290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="274" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="274" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B274" s="23" t="s">
         <v>481</v>
       </c>
@@ -30342,7 +30334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="275" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B275" s="23" t="s">
         <v>482</v>
       </c>
@@ -30386,7 +30378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="276" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B276" s="23" t="s">
         <v>483</v>
       </c>
@@ -30430,7 +30422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="277" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B277" s="23" t="s">
         <v>484</v>
       </c>
@@ -30474,7 +30466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="278" spans="2:15" ht="40" customHeight="1">
       <c r="B278" s="23" t="s">
         <v>485</v>
       </c>
@@ -30518,7 +30510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="279" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B279" s="23" t="s">
         <v>486</v>
       </c>
@@ -30562,7 +30554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="280" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B280" s="23" t="s">
         <v>487</v>
       </c>
@@ -30606,7 +30598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="281" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B281" s="23" t="s">
         <v>488</v>
       </c>
@@ -30650,7 +30642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="282" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B282" s="23" t="s">
         <v>489</v>
       </c>
@@ -30694,7 +30686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="283" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B283" s="23" t="s">
         <v>490</v>
       </c>
@@ -30738,7 +30730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="284" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B284" s="23" t="s">
         <v>491</v>
       </c>
@@ -30782,7 +30774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="285" spans="2:15" ht="40" customHeight="1">
       <c r="B285" s="23" t="s">
         <v>492</v>
       </c>
@@ -30826,7 +30818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="286" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B286" s="23" t="s">
         <v>493</v>
       </c>
@@ -30870,7 +30862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="287" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B287" s="23" t="s">
         <v>494</v>
       </c>
@@ -30914,7 +30906,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="288" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="288" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B288" s="23" t="s">
         <v>495</v>
       </c>
@@ -30958,7 +30950,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="289" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="289" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B289" s="23" t="s">
         <v>496</v>
       </c>
@@ -31002,7 +30994,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="290" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B290" s="23" t="s">
         <v>497</v>
       </c>
@@ -31046,7 +31038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="291" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B291" s="23" t="s">
         <v>498</v>
       </c>
@@ -31090,7 +31082,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="292" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="292" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B292" s="23" t="s">
         <v>499</v>
       </c>
@@ -31134,7 +31126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="293" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="293" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B293" s="23" t="s">
         <v>500</v>
       </c>
@@ -31178,7 +31170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="294" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B294" s="23" t="s">
         <v>501</v>
       </c>
@@ -31222,7 +31214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="295" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B295" s="23" t="s">
         <v>502</v>
       </c>
@@ -31266,7 +31258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="296" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B296" s="23" t="s">
         <v>503</v>
       </c>
@@ -31310,7 +31302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="297" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="297" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B297" s="23" t="s">
         <v>504</v>
       </c>
@@ -31354,7 +31346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="298" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B298" s="23" t="s">
         <v>505</v>
       </c>
@@ -31398,7 +31390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="299" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="299" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B299" s="23" t="s">
         <v>506</v>
       </c>
@@ -31442,7 +31434,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="300" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="300" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B300" s="23" t="s">
         <v>507</v>
       </c>
@@ -31486,7 +31478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="301" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B301" s="23" t="s">
         <v>508</v>
       </c>
@@ -31530,7 +31522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="302" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B302" s="23" t="s">
         <v>509</v>
       </c>
@@ -31574,7 +31566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="303" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B303" s="23" t="s">
         <v>510</v>
       </c>
@@ -31618,7 +31610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="304" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B304" s="23" t="s">
         <v>511</v>
       </c>
@@ -31662,7 +31654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="305" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B305" s="23" t="s">
         <v>512</v>
       </c>
@@ -31706,7 +31698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="306" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B306" s="23" t="s">
         <v>513</v>
       </c>
@@ -31750,7 +31742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="307" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B307" s="23" t="s">
         <v>514</v>
       </c>
@@ -31794,7 +31786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="308" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B308" s="23" t="s">
         <v>515</v>
       </c>
@@ -31838,7 +31830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="309" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B309" s="23" t="s">
         <v>516</v>
       </c>
@@ -31882,7 +31874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="310" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B310" s="23" t="s">
         <v>517</v>
       </c>
@@ -31926,7 +31918,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="311" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="311" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B311" s="23" t="s">
         <v>518</v>
       </c>
@@ -31970,7 +31962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="312" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B312" s="23" t="s">
         <v>519</v>
       </c>
@@ -32014,7 +32006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="313" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B313" s="23" t="s">
         <v>520</v>
       </c>
@@ -32058,7 +32050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="314" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B314" s="23" t="s">
         <v>521</v>
       </c>
@@ -32102,7 +32094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="315" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B315" s="23" t="s">
         <v>522</v>
       </c>
@@ -32146,7 +32138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="316" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B316" s="23" t="s">
         <v>523</v>
       </c>
@@ -32190,7 +32182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="317" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B317" s="23" t="s">
         <v>524</v>
       </c>
@@ -32234,7 +32226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="318" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B318" s="23" t="s">
         <v>525</v>
       </c>
@@ -32278,7 +32270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="319" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="319" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B319" s="23" t="s">
         <v>526</v>
       </c>
@@ -32322,7 +32314,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="320" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="320" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B320" s="23" t="s">
         <v>527</v>
       </c>
@@ -32366,7 +32358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="321" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B321" s="23" t="s">
         <v>528</v>
       </c>
@@ -32410,7 +32402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="322" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="322" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B322" s="23" t="s">
         <v>529</v>
       </c>
@@ -32454,7 +32446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="323" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B323" s="23" t="s">
         <v>530</v>
       </c>
@@ -32498,7 +32490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="324" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="324" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B324" s="23" t="s">
         <v>531</v>
       </c>
@@ -32542,7 +32534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="325" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B325" s="23" t="s">
         <v>532</v>
       </c>
@@ -32586,7 +32578,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="326" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="326" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B326" s="23" t="s">
         <v>533</v>
       </c>
@@ -32630,7 +32622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="327" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B327" s="23" t="s">
         <v>534</v>
       </c>
@@ -32674,7 +32666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="328" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B328" s="23" t="s">
         <v>535</v>
       </c>
@@ -32718,7 +32710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="329" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="329" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B329" s="23" t="s">
         <v>536</v>
       </c>
@@ -32762,7 +32754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="330" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B330" s="23" t="s">
         <v>537</v>
       </c>
@@ -32806,7 +32798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="331" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="331" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B331" s="23" t="s">
         <v>538</v>
       </c>
@@ -32850,7 +32842,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="332" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="332" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B332" s="23" t="s">
         <v>539</v>
       </c>
@@ -32894,7 +32886,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="333" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B333" s="23" t="s">
         <v>540</v>
       </c>
@@ -32938,7 +32930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="334" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B334" s="23" t="s">
         <v>541</v>
       </c>
@@ -32982,7 +32974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="335" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B335" s="23" t="s">
         <v>542</v>
       </c>
@@ -33026,7 +33018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="336" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B336" s="23" t="s">
         <v>543</v>
       </c>
@@ -33070,7 +33062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="337" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B337" s="23" t="s">
         <v>544</v>
       </c>
@@ -33114,7 +33106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="338" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B338" s="23" t="s">
         <v>545</v>
       </c>
@@ -33158,7 +33150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="339" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B339" s="23" t="s">
         <v>546</v>
       </c>
@@ -33202,7 +33194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="340" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B340" s="23" t="s">
         <v>547</v>
       </c>
@@ -33246,7 +33238,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="341" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="341" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B341" s="23" t="s">
         <v>548</v>
       </c>
@@ -33290,7 +33282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="342" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B342" s="23" t="s">
         <v>549</v>
       </c>
@@ -33334,7 +33326,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="343" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="343" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B343" s="23" t="s">
         <v>550</v>
       </c>
@@ -33378,7 +33370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="344" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="344" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B344" s="23" t="s">
         <v>551</v>
       </c>
@@ -33422,7 +33414,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="345" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B345" s="23" t="s">
         <v>552</v>
       </c>
@@ -33466,7 +33458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="346" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="346" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B346" s="23" t="s">
         <v>553</v>
       </c>
@@ -33510,7 +33502,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="347" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="347" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B347" s="23" t="s">
         <v>554</v>
       </c>
@@ -33554,7 +33546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="348" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B348" s="23" t="s">
         <v>555</v>
       </c>
@@ -33598,7 +33590,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="349" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="349" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B349" s="23" t="s">
         <v>556</v>
       </c>
@@ -33642,7 +33634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="350" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B350" s="23" t="s">
         <v>557</v>
       </c>
@@ -33686,7 +33678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="351" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="351" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B351" s="23" t="s">
         <v>558</v>
       </c>
@@ -33730,7 +33722,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="2:15" ht="39.950000000000003" customHeight="1">
+    <row r="352" spans="2:15" ht="40" customHeight="1">
       <c r="B352" s="23" t="s">
         <v>559</v>
       </c>
@@ -33774,7 +33766,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="353" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="353" spans="2:15" ht="20.149999999999999" customHeight="1">
       <c r="B353" s="23" t="s">
         <v>85</v>
       </c>
